--- a/APP_PERSONAS/src/test/resources/datadriven/e-prepago/activacion_eprepago.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/e-prepago/activacion_eprepago.xlsx
@@ -79,13 +79,13 @@
     <t>CONSULTAR_PRODUCTO</t>
   </si>
   <si>
-    <t>pruebasregistro30</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>4321</t>
+    <t>matrix01</t>
+  </si>
+  <si>
+    <t>6789</t>
+  </si>
+  <si>
+    <t>9876</t>
   </si>
 </sst>
 </file>
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="5">
-        <v>44832981</v>
+        <v>22483228</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>13</v>

--- a/APP_PERSONAS/src/test/resources/datadriven/e-prepago/activacion_eprepago.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/e-prepago/activacion_eprepago.xlsx
@@ -79,13 +79,13 @@
     <t>CONSULTAR_PRODUCTO</t>
   </si>
   <si>
-    <t>matrix01</t>
-  </si>
-  <si>
-    <t>6789</t>
-  </si>
-  <si>
-    <t>9876</t>
+    <t>pruebasregistro48</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>4321</t>
   </si>
 </sst>
 </file>
@@ -484,7 +484,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="5">
-        <v>22483228</v>
+        <v>700100</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>13</v>

--- a/APP_PERSONAS/src/test/resources/datadriven/e-prepago/activacion_eprepago.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/e-prepago/activacion_eprepago.xlsx
@@ -79,13 +79,13 @@
     <t>CONSULTAR_PRODUCTO</t>
   </si>
   <si>
-    <t>pruebasregistro48</t>
-  </si>
-  <si>
     <t>1234</t>
   </si>
   <si>
     <t>4321</t>
+  </si>
+  <si>
+    <t>pruebasregistro49</t>
   </si>
 </sst>
 </file>
@@ -484,7 +484,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -547,19 +547,19 @@
         <v>13</v>
       </c>
       <c r="B2" s="5">
-        <v>700100</v>
+        <v>700101</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>14</v>

--- a/APP_PERSONAS/src/test/resources/datadriven/e-prepago/activacion_eprepago.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/e-prepago/activacion_eprepago.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>pruebasregistro49</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>pruebasregistro48</t>
   </si>
 </sst>
 </file>
@@ -481,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -583,6 +589,47 @@
         <v>20</v>
       </c>
     </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="5">
+        <v>700100</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
